--- a/waterfalls/waterfall.xlsx
+++ b/waterfalls/waterfall.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U6120756/1notebooks/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/U6120756/prinz-stuff/chart-templates/waterfalls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D0A01A-65EE-654F-95A2-2D14D790DCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE87794-475E-B947-B1F8-D8B898151EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34280" yWindow="1320" windowWidth="26840" windowHeight="15740" xr2:uid="{349C1628-1246-8F40-BEAF-DAF2D1A4A487}"/>
+    <workbookView xWindow="34280" yWindow="1320" windowWidth="26840" windowHeight="15740" activeTab="2" xr2:uid="{349C1628-1246-8F40-BEAF-DAF2D1A4A487}"/>
   </bookViews>
   <sheets>
     <sheet name="since 2010" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72341A3E-6A0B-3E44-9D2E-7182E77F0B16}">
   <dimension ref="A1:B681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -6394,8 +6394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88829692-FC44-D54F-8E95-BAFDF35B2F86}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
